--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145140.1847234573</v>
+        <v>25066479.77191347</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145140.1847234573</v>
+        <v>25066479.77191347</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27511.50178138946</v>
+        <v>3379849.986771428</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27511.50178138946</v>
+        <v>3379849.986771428</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417501167.906359</v>
+        <v>53310940.53362019</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10294.41592106448</v>
+        <v>1083094.712075021</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20543.97191945511</v>
+        <v>2166930.404461046</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30803.03260728928</v>
+        <v>3253626.21083585</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41412.07967072148</v>
+        <v>4309091.143426182</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51643.00900514118</v>
+        <v>5390511.704068366</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61682.99272297803</v>
+        <v>6499020.600116131</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71743.05458942171</v>
+        <v>7613070.033729521</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81806.51870773383</v>
+        <v>8748333.249011168</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>92441.26885397463</v>
+        <v>9818798.630946198</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>102464.9703544615</v>
+        <v>10925241.72917208</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>112316.4361857677</v>
+        <v>12056234.89346299</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122186.6391012826</v>
+        <v>13190596.44394044</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132056.842016797</v>
+        <v>14324957.99441794</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142704.6380281874</v>
+        <v>15387864.92213733</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154943.5963618949</v>
+        <v>16260889.65914095</v>
       </c>
     </row>
   </sheetData>
